--- a/medicine/Psychotrope/Averbode_(bière)/Averbode_(bière).xlsx
+++ b/medicine/Psychotrope/Averbode_(bière)/Averbode_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Averbode_(bi%C3%A8re)</t>
+          <t>Averbode_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Averbode est une  bière d'abbaye brassée par la brasserie Huyghe située à Melle dans la province de Flandre-Orientale qui se réfère à l'abbaye d'Averbode située dans la commune de Montaigu-Zichem (section d'Averbode) au nord-ouest de Diest dans la province du Brabant flamand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Averbode_(bi%C3%A8re)</t>
+          <t>Averbode_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbaye d'Averbode, fondée en 1134 et encore aujourd'hui occupée par une communauté de chanoines prémontrés, a exercé une activité brassicole depuis le XIVe siècle jusqu’au début du XXe siècle. En 2013, elle passe un accord avec la brasserie Huyghe pour produire la bière Averbode.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Averbode_(bi%C3%A8re)</t>
+          <t>Averbode_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une bière blonde dorée composée de trois céréales : deux sortes de malt d’orge, de l'avoine et de l'épeautre[1]. Elle est houblonnée à cru (4 sortes de houblon) et refermentée en bouteille. Elle titre 7,5 % en volume d'alcool et arbore le logo Bière belge d'Abbaye reconnue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une bière blonde dorée composée de trois céréales : deux sortes de malt d’orge, de l'avoine et de l'épeautre. Elle est houblonnée à cru (4 sortes de houblon) et refermentée en bouteille. Elle titre 7,5 % en volume d'alcool et arbore le logo Bière belge d'Abbaye reconnue.
 </t>
         </is>
       </c>
